--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_23.qasm_rb2_archsize5_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_23.qasm_rb2_archsize5_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N942"/>
+  <dimension ref="A1:N963"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.639307022094727</v>
+        <v>0.001081943511962891</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.13582396507263</v>
+        <v>0.0007460117340087891</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.01745915412902832</v>
+        <v>0.07392501831054688</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 1), (1, 0), (1, 2), (2, 1), (0, 0), (0, 2), (0, 3), (1, 4), (2, 2), (2, 0), (3, 0), (3, 2), (1, 3), (0, 4), (3, 4), (3, 3), (4, 3), (4, 2), (4, 4), (3, 1), (4, 1), (4, 0)]</t>
+          <t>[[0, 1], [1, 1], [1, 0], [1, 2], [2, 1], [0, 0], [0, 2], [0, 3], [1, 4], [2, 2], [2, 0], [3, 0], [3, 2], [1, 3], [0, 4], [3, 4], [3, 3], [4, 3], [4, 2], [4, 4], [3, 1], [4, 1], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[(3, 1), (1, 0), (2, 2), (0, 1), (1, 3), (0, 3), (0, 2), (1, 2), (1, 1), (2, 1), (2, 0), (3, 0), (3, 2), (2, 4), (0, 4), (3, 4), (3, 3), (4, 3), (4, 2), (4, 4), (2, 3), (4, 1), (4, 0)]</t>
+          <t>[[3, 1], [1, 0], [2, 2], [0, 1], [1, 3], [0, 3], [0, 2], [1, 2], [1, 1], [2, 1], [2, 0], [3, 0], [3, 2], [2, 4], [0, 4], [3, 4], [3, 3], [4, 3], [4, 2], [4, 4], [2, 3], [4, 1], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[(2, 4), (1, 4), (0, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (1, 3), (0, 4), (3, 4), (3, 3), (4, 3), (4, 2), (4, 4), (3, 1), (4, 1), (4, 0)]</t>
+          <t>[[2, 4], [1, 4], [0, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [1, 3], [0, 4], [3, 4], [3, 3], [4, 3], [4, 2], [4, 4], [3, 1], [4, 1], [4, 0]]</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>[(4, 1), (3, 2), (4, 4), (3, 4), (1, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (2, 4), (3, 3), (4, 3), (4, 2), (3, 0), (3, 1), (4, 0), (0, 3)]</t>
+          <t>[[4, 1], [3, 2], [4, 4], [3, 4], [1, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [2, 4], [3, 3], [4, 3], [4, 2], [3, 0], [3, 1], [4, 0], [0, 3]]</t>
         </is>
       </c>
     </row>
@@ -1310,11 +1310,6 @@
           <t>[8, 9]</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>[2, 17]</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1357,11 +1352,6 @@
           <t>[2, 15]</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>[8, 11]</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1376,7018 +1366,7078 @@
           <t>[0, 17]</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>[8, 10]</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>[7, 11]</t>
+          <t>[8, 10]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[7, 11]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[5, 13]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>[4, 14]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>[3, 15]</t>
+          <t>[4, 14]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[2, 16]</t>
+          <t>[3, 15]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>[1, 17]</t>
+          <t>[2, 16]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>[0, 18]</t>
+          <t>[1, 17]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>[9, 10]</t>
+          <t>[0, 18]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>[7, 12]</t>
+          <t>[9, 10]</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[2, 17]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>[6, 13]</t>
+          <t>[8, 11]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>[5, 14]</t>
+          <t>[7, 12]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>[4, 15]</t>
+          <t>[6, 13]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>[3, 16]</t>
+          <t>[5, 14]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>[1, 18]</t>
+          <t>[4, 15]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>[0, 19]</t>
+          <t>[3, 16]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>[3, 17]</t>
+          <t>[1, 18]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>[8, 12]</t>
+          <t>[0, 19]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>[7, 13]</t>
+          <t>[9, 11]</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>[3, 17]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[8, 12]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>[5, 15]</t>
+          <t>[7, 13]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>[4, 16]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>[2, 18]</t>
+          <t>[5, 15]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>[1, 19]</t>
+          <t>[4, 16]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>[0, 20]</t>
+          <t>[2, 18]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>[10, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>[16, [3, 3], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>[13, [1, 2], [1, 0]]</t>
+          <t>[1, 19]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>[15, [2, 4], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>[11, [1, 0], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>[2, [4, 4], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>[21, [4, 0], [4, 1]]</t>
+          <t>[0, 20]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>[17, [4, 3], [1, 3]]</t>
+          <t>[10, [0, 2], [0, 0]]</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>[12, [2, 0], [0, 2]]</t>
+          <t>[16, [3, 3], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>[13, [1, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>[22, [0, 3], [4, 0]]</t>
+          <t>[15, [2, 4], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[11, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>[2, [4, 4], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[21, [4, 0], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>[4, [1, 3], [3, 3]]</t>
+          <t>[17, [4, 3], [1, 3]]</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>[9, [0, 1], [1, 1]]</t>
+          <t>[12, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>[8, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>[3, [3, 4], [4, 3]]</t>
+          <t>[22, [0, 3], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>[14, [2, 3], [2, 0]]</t>
+          <t>[4, [1, 3], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[9, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>[6, [2, 1], [1, 4]]</t>
+          <t>[8, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>[3, [3, 4], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>[19, [3, 0], [4, 4]]</t>
+          <t>[14, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>[1, [3, 2], [3, 0]]</t>
+          <t>[6, [2, 1], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>[5, [2, 2], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>[18, [4, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>[0, [4, 1], [3, 1]]</t>
+          <t>[19, [3, 0], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>[7, [1, 1], [2, 2]]</t>
+          <t>[1, [3, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>[20, [3, 1], [3, 2]]</t>
+          <t>[5, [2, 2], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>[18, [4, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>[0, [4, 1], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>[(3, 1), (3, 0), (4, 2), (4, 3), (3, 3), (2, 4), (1, 4), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1), (4, 0)]</t>
+          <t>[7, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>[10, 11]</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>[3, 18]</t>
+          <t>[20, [3, 1], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>[9, 12]</t>
+          <t>[[3, 1], [3, 0], [4, 2], [4, 3], [3, 3], [2, 4], [1, 4], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>[8, 13]</t>
+          <t>[10, 11]</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>[3, 18]</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>[7, 14]</t>
+          <t>[9, 12]</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>[6, 15]</t>
+          <t>[8, 13]</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
+          <t>[7, 14]</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>[4, 17]</t>
+          <t>[6, 15]</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>[2, 19]</t>
+          <t>[5, 16]</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[4, 17]</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>[0, 21]</t>
+          <t>[2, 19]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>[10, 12]</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>[3, 19]</t>
+          <t>[1, 20]</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>[9, 13]</t>
+          <t>[0, 21]</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>[8, 14]</t>
+          <t>[10, 12]</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>[3, 19]</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>[7, 15]</t>
+          <t>[9, 13]</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>[6, 16]</t>
+          <t>[8, 14]</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>[5, 17]</t>
+          <t>[7, 15]</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>[4, 18]</t>
+          <t>[6, 16]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>[2, 20]</t>
+          <t>[5, 17]</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>[1, 21]</t>
+          <t>[4, 18]</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>[0, 22]</t>
+          <t>[2, 20]</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>[11, 12]</t>
+          <t>[1, 21]</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>[10, 13]</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>[5, 18]</t>
+          <t>[0, 22]</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>[9, 14]</t>
+          <t>[11, 12]</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>[8, 15]</t>
+          <t>[10, 13]</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>[5, 18]</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>[7, 16]</t>
+          <t>[9, 14]</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>[6, 17]</t>
+          <t>[8, 15]</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>[4, 19]</t>
+          <t>[7, 16]</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>[3, 20]</t>
+          <t>[6, 17]</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>[2, 21]</t>
+          <t>[4, 19]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>[1, 22]</t>
+          <t>[3, 20]</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>[11, 13]</t>
+          <t>[2, 21]</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>[10, 14]</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>[6, 18]</t>
+          <t>[1, 22]</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>[9, 15]</t>
+          <t>[11, 13]</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>[8, 16]</t>
+          <t>[10, 14]</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>[6, 18]</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>[7, 17]</t>
+          <t>[9, 15]</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>[5, 19]</t>
+          <t>[8, 16]</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>[4, 20]</t>
+          <t>[7, 17]</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>[3, 21]</t>
+          <t>[5, 19]</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>[0, 1]</t>
+          <t>[4, 20]</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>[2, 22]</t>
+          <t>[3, 21]</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>[2, [4, 2], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>[17, [1, 3], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>[12, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>[18, [3, 4], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>[15, [1, 2], [1, 0]]</t>
+          <t>[0, 1]</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>[22, [4, 0], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>[14, [2, 0], [0, 2]]</t>
+          <t>[2, 22]</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>[16, [2, 3], [2, 0]]</t>
+          <t>[2, [4, 2], [3, 0]]</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>[17, [1, 3], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>[12, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>[18, [3, 4], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>[15, [1, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>[8, [2, 1], [1, 4]]</t>
+          <t>[22, [4, 0], [3, 2]]</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>[21, [4, 1], [4, 4]]</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>[13, [1, 0], [0, 1]]</t>
+          <t>[14, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>[20, [3, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>[7, [2, 2], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>[11, [0, 1], [1, 1]]</t>
+          <t>[16, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>[6, [1, 4], [3, 3]]</t>
+          <t>[8, [2, 1], [1, 4]]</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>[5, [2, 4], [4, 3]]</t>
+          <t>[21, [4, 1], [4, 4]]</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>[10, [0, 0], [2, 1]]</t>
+          <t>[13, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>[9, [1, 1], [2, 2]]</t>
+          <t>[20, [3, 2], [3, 4]]</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>[1, [3, 0], [4, 0]]</t>
+          <t>[7, [2, 2], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>[11, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>[19, [4, 4], [1, 3]]</t>
+          <t>[6, [1, 4], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>[5, [2, 4], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>[10, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>[4, [3, 3], [4, 2]]</t>
+          <t>[9, [1, 1], [2, 2]]</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>[0, [3, 1], [4, 1]]</t>
+          <t>[1, [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>[3, [4, 3], [3, 1]]</t>
+          <t>[19, [4, 4], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>[(4, 1), (4, 0), (3, 0), (3, 1), (4, 2), (4, 3), (3, 3), (2, 4), (1, 4), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (1, 3), (3, 4), (4, 4), (3, 2)]</t>
+          <t>[4, [3, 3], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>[0, [3, 1], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[12, 13]</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>[5, 20]</t>
+          <t>[3, [4, 3], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>[11, 14]</t>
+          <t>[[4, 1], [4, 0], [3, 0], [3, 1], [4, 2], [4, 3], [3, 3], [2, 4], [1, 4], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [1, 3], [3, 4], [4, 4], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>[10, 15]</t>
+          <t>[12, 13]</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>[5, 20]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[9, 16]</t>
+          <t>[11, 14]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[10, 15]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>[7, 18]</t>
+          <t>[9, 16]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>[6, 19]</t>
+          <t>[8, 17]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[4, 21]</t>
+          <t>[7, 18]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>[0, 2]</t>
+          <t>[6, 19]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>[3, 22]</t>
+          <t>[4, 21]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>[12, 14]</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>[5, 21]</t>
+          <t>[0, 2]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>[11, 15]</t>
+          <t>[3, 22]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>[10, 16]</t>
+          <t>[12, 14]</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>[5, 21]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>[9, 17]</t>
+          <t>[11, 15]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>[8, 18]</t>
+          <t>[10, 16]</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>[7, 19]</t>
+          <t>[9, 17]</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[6, 20]</t>
+          <t>[8, 18]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[1, 2]</t>
+          <t>[7, 19]</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>[0, 3]</t>
+          <t>[6, 20]</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[4, 22]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>[13, 14]</t>
+          <t>[0, 3]</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[12, 15]</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>[7, 20]</t>
+          <t>[4, 22]</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>[11, 16]</t>
+          <t>[13, 14]</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>[10, 17]</t>
+          <t>[12, 15]</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>[7, 20]</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>[9, 18]</t>
+          <t>[11, 16]</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[8, 19]</t>
+          <t>[10, 17]</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>[6, 21]</t>
+          <t>[9, 18]</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[8, 19]</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>[0, 4]</t>
+          <t>[6, 21]</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[5, 22]</t>
+          <t>[1, 3]</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[0, 4]</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>[12, 16]</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>[8, 20]</t>
+          <t>[5, 22]</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>[11, 17]</t>
+          <t>[13, 15]</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>[10, 18]</t>
+          <t>[12, 16]</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>[8, 20]</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>[9, 19]</t>
+          <t>[11, 17]</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>[7, 21]</t>
+          <t>[10, 18]</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[9, 19]</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
+          <t>[7, 21]</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>[0, 5]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>[6, 22]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>[22, [3, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>[13, [0, 1], [1, 1]]</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>[9, [2, 2], [2, 4]]</t>
+          <t>[0, 5]</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>[8, [1, 4], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>[7, [2, 4], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>[12, [0, 0], [2, 1]]</t>
+          <t>[6, 22]</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>[0, [4, 1], [4, 4]]</t>
+          <t>[22, [3, 2], [3, 4]]</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>[10, [2, 1], [1, 4]]</t>
+          <t>[13, [0, 1], [1, 1]]</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>[15, [1, 0], [0, 1]]</t>
+          <t>[9, [2, 2], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>[21, [4, 4], [1, 3]]</t>
+          <t>[8, [1, 4], [3, 3]]</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>[14, [0, 2], [0, 0]]</t>
+          <t>[7, [2, 4], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>[12, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>[20, [3, 4], [2, 3]]</t>
+          <t>[0, [4, 1], [4, 4]]</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>[16, [2, 0], [0, 2]]</t>
+          <t>[10, [2, 1], [1, 4]]</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>[1, [4, 0], [3, 2]]</t>
+          <t>[15, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>[17, [1, 2], [1, 0]]</t>
+          <t>[21, [4, 4], [1, 3]]</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>[6, [3, 3], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>[19, [1, 3], [1, 2]]</t>
+          <t>[14, [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>[11, [1, 1], [2, 2]]</t>
+          <t>[20, [3, 4], [2, 3]]</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>[2, [3, 0], [4, 1]]</t>
+          <t>[16, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>[1, [4, 0], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>[5, [4, 3], [3, 0]]</t>
+          <t>[17, [1, 2], [1, 0]]</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>[18, [2, 3], [2, 0]]</t>
+          <t>[6, [3, 3], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>[19, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>[4, [4, 2], [3, 1]]</t>
+          <t>[11, [1, 1], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>[2, [3, 0], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>[3, [3, 1], [4, 0]]</t>
+          <t>[5, [4, 3], [3, 0]]</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>[18, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>[(4, 4), (3, 2), (4, 1), (4, 0), (3, 1), (3, 0), (4, 2), (4, 3), (3, 3), (2, 4), (1, 4), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (1, 3), (3, 4)]</t>
+          <t>[4, [4, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>[0, 6]</t>
+          <t>[3, [3, 1], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[13, 16]</t>
+          <t>[[4, 4], [3, 2], [4, 1], [4, 0], [3, 1], [3, 0], [4, 2], [4, 3], [3, 3], [2, 4], [1, 4], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [1, 3], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>[12, 17]</t>
+          <t>[14, 15]</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>[0, 6]</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>[11, 18]</t>
+          <t>[13, 16]</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>[10, 19]</t>
+          <t>[12, 17]</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>[9, 20]</t>
+          <t>[11, 18]</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>[8, 21]</t>
+          <t>[10, 19]</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[9, 20]</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[8, 21]</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>[7, 22]</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>[14, 17]</t>
+          <t>[2, 4]</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>[14, 16]</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>[0, 7]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>[13, 17]</t>
+          <t>[7, 22]</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>[12, 18]</t>
+          <t>[14, 16]</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>[0, 7]</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>[11, 19]</t>
+          <t>[13, 17]</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[10, 20]</t>
+          <t>[12, 18]</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>[9, 21]</t>
+          <t>[11, 19]</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[10, 20]</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[9, 21]</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>[1, 6]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>[8, 22]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>[15, 16]</t>
+          <t>[1, 6]</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[8, 22]</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>[12, 19]</t>
+          <t>[15, 16]</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>[11, 20]</t>
+          <t>[14, 17]</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>[9, 22]</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>[10, 21]</t>
+          <t>[13, 18]</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
+          <t>[12, 19]</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>[2, 6]</t>
+          <t>[11, 20]</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>[1, 7]</t>
+          <t>[10, 21]</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>[0, 8]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>[9, 22]</t>
+          <t>[2, 6]</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>[15, 17]</t>
+          <t>[1, 7]</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>[14, 18]</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>[10, 22]</t>
+          <t>[0, 8]</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[15, 17]</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>[12, 20]</t>
+          <t>[14, 18]</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>[10, 22]</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>[11, 21]</t>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[12, 20]</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>[3, 6]</t>
+          <t>[11, 21]</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>[2, 7]</t>
+          <t>[4, 5]</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>[1, 8]</t>
+          <t>[3, 6]</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>[0, 9]</t>
+          <t>[2, 7]</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>[3, [4, 0], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>[22, [3, 4], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>[18, [2, 0], [0, 2]]</t>
+          <t>[1, 8]</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>[7, [4, 3], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>[19, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>[16, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>[6, [4, 2], [3, 0]]</t>
+          <t>[0, 9]</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>[2, [4, 1], [4, 4]]</t>
+          <t>[3, [4, 0], [3, 2]]</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>[12, [2, 1], [1, 4]]</t>
+          <t>[22, [3, 4], [2, 3]]</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>[17, [1, 0], [0, 1]]</t>
+          <t>[18, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>[1, [3, 2], [3, 4]]</t>
+          <t>[7, [4, 3], [3, 1]]</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>[15, [0, 1], [1, 1]]</t>
+          <t>[19, [1, 2], [1, 0]]</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>[11, [2, 2], [2, 4]]</t>
+          <t>[16, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>[6, [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>[10, [1, 4], [3, 3]]</t>
+          <t>[2, [4, 1], [4, 4]]</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>[9, [2, 4], [4, 3]]</t>
+          <t>[12, [2, 1], [1, 4]]</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>[14, [0, 0], [2, 1]]</t>
+          <t>[17, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>[0, [4, 4], [1, 3]]</t>
+          <t>[1, [3, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>[15, [0, 1], [1, 1]]</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>[11, [2, 2], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>[8, [3, 3], [4, 2]]</t>
+          <t>[10, [1, 4], [3, 3]]</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>[4, [3, 1], [4, 1]]</t>
+          <t>[9, [2, 4], [4, 3]]</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>[21, [1, 3], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>[5, [3, 0], [4, 0]]</t>
+          <t>[14, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>[20, [2, 3], [2, 0]]</t>
+          <t>[0, [4, 4], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>[13, [1, 1], [2, 2]]</t>
+          <t>[8, [3, 3], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>[4, [3, 1], [4, 1]]</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>[21, [1, 3], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>[5, [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>[(1, 3), (3, 4), (4, 4), (3, 2), (4, 1), (4, 0), (3, 0), (3, 1), (4, 2), (4, 3), (3, 3), (2, 4), (1, 4), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3)]</t>
+          <t>[20, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>[2, 8]</t>
+          <t>[13, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>[15, 18]</t>
+          <t>[[1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [4, 0], [3, 0], [3, 1], [4, 2], [4, 3], [3, 3], [2, 4], [1, 4], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[16, 17]</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>[2, 8]</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[15, 18]</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>[12, 21]</t>
+          <t>[14, 19]</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>[4, 6]</t>
+          <t>[13, 20]</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>[3, 7]</t>
+          <t>[12, 21]</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>[1, 9]</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>[16, 19]</t>
+          <t>[4, 6]</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>[0, 10]</t>
+          <t>[3, 7]</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>[11, 22]</t>
+          <t>[1, 9]</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>[16, 18]</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>[2, 9]</t>
+          <t>[0, 10]</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>[15, 19]</t>
+          <t>[11, 22]</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>[14, 20]</t>
+          <t>[16, 18]</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>[2, 9]</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>[13, 21]</t>
+          <t>[15, 19]</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>[5, 6]</t>
+          <t>[14, 20]</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>[4, 7]</t>
+          <t>[13, 21]</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>[3, 8]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>[1, 10]</t>
+          <t>[4, 7]</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>[0, 11]</t>
+          <t>[3, 8]</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>[12, 22]</t>
+          <t>[1, 10]</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>[17, 18]</t>
+          <t>[0, 11]</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>[15, 20]</t>
+          <t>[12, 22]</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>[14, 21]</t>
+          <t>[17, 18]</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>[5, 7]</t>
+          <t>[16, 19]</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>[1, 11]</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>[4, 8]</t>
+          <t>[15, 20]</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>[3, 9]</t>
+          <t>[14, 21]</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>[2, 10]</t>
+          <t>[5, 7]</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>[1, 11]</t>
+          <t>[4, 8]</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>[0, 12]</t>
+          <t>[3, 9]</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>[13, 22]</t>
+          <t>[2, 10]</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>[17, 19]</t>
+          <t>[0, 12]</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>[16, 20]</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>[1, 12]</t>
+          <t>[13, 22]</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[17, 19]</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>[6, 7]</t>
+          <t>[16, 20]</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>[1, 12]</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>[5, 8]</t>
+          <t>[15, 21]</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>[4, 9]</t>
+          <t>[6, 7]</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>[3, 10]</t>
+          <t>[5, 8]</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>[2, 11]</t>
+          <t>[4, 9]</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>[0, 13]</t>
+          <t>[3, 10]</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>[14, 22]</t>
+          <t>[2, 11]</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>[5, [4, 0], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>[14, [2, 1], [1, 4]]</t>
+          <t>[0, 13]</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>[8, [4, 2], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>[18, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>[0, [1, 3], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="D351" t="inlineStr">
-        <is>
-          <t>[21, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="E351" t="inlineStr">
-        <is>
-          <t>[1, [3, 4], [2, 3]]</t>
+          <t>[14, 22]</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>[20, [2, 0], [0, 2]]</t>
+          <t>[5, [4, 0], [3, 2]]</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>[3, [3, 2], [3, 4]]</t>
+          <t>[14, [2, 1], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>[2, [4, 4], [1, 3]]</t>
+          <t>[8, [4, 2], [3, 0]]</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>[19, [1, 0], [0, 1]]</t>
+          <t>[18, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>[0, [1, 3], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>[21, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>[1, [3, 4], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>[9, [4, 3], [3, 1]]</t>
+          <t>[20, [2, 0], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>[3, [3, 2], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>[11, [2, 4], [4, 3]]</t>
+          <t>[2, [4, 4], [1, 3]]</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>[15, [1, 1], [2, 2]]</t>
+          <t>[19, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>[16, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>[6, [3, 0], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>[10, [3, 3], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="D356" t="inlineStr">
-        <is>
-          <t>[12, [1, 4], [3, 3]]</t>
+          <t>[9, [4, 3], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>[4, [4, 1], [4, 4]]</t>
+          <t>[11, [2, 4], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>[15, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>[22, [2, 3], [2, 0]]</t>
+          <t>[16, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>[6, [3, 0], [4, 1]]</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>[10, [3, 3], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>[12, [1, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>[7, [3, 1], [4, 0]]</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>[13, [2, 2], [2, 4]]</t>
+          <t>[4, [4, 1], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>[17, [0, 1], [1, 1]]</t>
+          <t>[22, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>[(1, 2), (2, 3), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1), (4, 0), (3, 0), (3, 1), (4, 2), (4, 3), (3, 3), (2, 4), (1, 4), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0)]</t>
+          <t>[7, [3, 1], [4, 0]]</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>[13, [2, 2], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>[18, 19]</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>[4, 10]</t>
+          <t>[17, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>[17, 20]</t>
+          <t>[[1, 2], [2, 3], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [4, 0], [3, 0], [3, 1], [4, 2], [4, 3], [3, 3], [2, 4], [1, 4], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>[16, 21]</t>
+          <t>[18, 19]</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>[4, 10]</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>[6, 8]</t>
+          <t>[17, 20]</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>[5, 9]</t>
+          <t>[16, 21]</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>[18, 21]</t>
+          <t>[6, 8]</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>[2, 12]</t>
+          <t>[5, 9]</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>[1, 13]</t>
+          <t>[3, 11]</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>[0, 14]</t>
+          <t>[2, 12]</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>[15, 22]</t>
+          <t>[1, 13]</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>[18, 20]</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>[4, 11]</t>
+          <t>[0, 14]</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[15, 22]</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>[7, 8]</t>
+          <t>[18, 20]</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>[4, 11]</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>[6, 9]</t>
+          <t>[17, 21]</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>[5, 10]</t>
+          <t>[7, 8]</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>[3, 12]</t>
+          <t>[6, 9]</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>[2, 13]</t>
+          <t>[5, 10]</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>[1, 14]</t>
+          <t>[3, 12]</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>[0, 15]</t>
+          <t>[2, 13]</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>[16, 22]</t>
+          <t>[1, 14]</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>[19, 20]</t>
+          <t>[0, 15]</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>[7, 9]</t>
+          <t>[16, 22]</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>[6, 10]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>[5, 11]</t>
+          <t>[18, 21]</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>[3, 13]</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>[4, 12]</t>
+          <t>[7, 9]</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>[3, 13]</t>
+          <t>[6, 10]</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>[2, 14]</t>
+          <t>[5, 11]</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>[1, 15]</t>
+          <t>[4, 12]</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>[0, 16]</t>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>[17, 22]</t>
+          <t>[1, 15]</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>[19, 21]</t>
+          <t>[0, 16]</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[17, 22]</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>[7, 10]</t>
+          <t>[19, 21]</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>[6, 11]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>[5, 12]</t>
+          <t>[7, 10]</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>[4, 13]</t>
+          <t>[6, 11]</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>[3, 14]</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>[18, 22]</t>
+          <t>[5, 12]</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[4, 13]</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>[1, 16]</t>
+          <t>[3, 14]</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>[18, 22]</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>[0, 17]</t>
+          <t>[2, 15]</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>[16, [2, 1], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>[21, [1, 0], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>[7, [4, 0], [3, 1]]</t>
+          <t>[1, 16]</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>[10, [4, 2], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>[14, [1, 4], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>[20, [0, 2], [0, 0]]</t>
+          <t>[0, 17]</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>[15, [2, 2], [3, 4]]</t>
+          <t>[16, [2, 1], [2, 3]]</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>[18, [0, 0], [1, 3]]</t>
+          <t>[21, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>[7, [4, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>[17, [1, 1], [0, 4]]</t>
+          <t>[10, [4, 2], [3, 0]]</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>[22, [2, 0], [1, 0]]</t>
+          <t>[14, [1, 4], [2, 2]]</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>[8, [3, 0], [4, 0]]</t>
+          <t>[20, [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>[3, [3, 4], [1, 4]]</t>
+          <t>[15, [2, 2], [3, 4]]</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>[6, [4, 1], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>[2, [1, 3], [0, 3]]</t>
+          <t>[18, [0, 0], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>[12, [3, 3], [4, 1]]</t>
+          <t>[17, [1, 1], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>[22, [2, 0], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>[8, [3, 0], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>[13, [2, 4], [4, 2]]</t>
+          <t>[3, [3, 4], [1, 4]]</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>[0, [1, 2], [1, 1]]</t>
+          <t>[6, [4, 1], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>[2, [1, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>[4, [4, 4], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>[1, [2, 3], [0, 2]]</t>
+          <t>[12, [3, 3], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>[11, [4, 3], [2, 0]]</t>
+          <t>[13, [2, 4], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>[0, [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>[9, [3, 1], [2, 1]]</t>
+          <t>[4, [4, 4], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>[1, [2, 3], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>[5, [3, 2], [3, 3]]</t>
+          <t>[11, [4, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>[19, [0, 1], [1, 2]]</t>
+          <t>[9, [3, 1], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (0, 3), (1, 4), (2, 4), (3, 3), (3, 2), (3, 1), (4, 0), (2, 1), (3, 0), (2, 0), (4, 1), (4, 2), (2, 2), (3, 4), (2, 3), (0, 4), (1, 3), (1, 2), (0, 0), (0, 1), (1, 0)]</t>
+          <t>[5, [3, 2], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>[20, 21]</t>
+          <t>[19, [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>[2, 17]</t>
+          <t>[[1, 1], [0, 2], [0, 3], [1, 4], [2, 4], [3, 3], [3, 2], [3, 1], [4, 0], [2, 1], [3, 0], [2, 0], [4, 1], [4, 2], [2, 2], [3, 4], [2, 3], [0, 4], [1, 3], [1, 2], [0, 0], [0, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>[7, 11]</t>
+          <t>[20, 21]</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>[6, 12]</t>
+          <t>[8, 10]</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>[5, 13]</t>
+          <t>[7, 11]</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>[4, 14]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>[3, 15]</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>[8, 11]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>[2, 16]</t>
+          <t>[4, 14]</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>[1, 17]</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>[8, 12]</t>
+          <t>[3, 15]</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>[0, 18]</t>
+          <t>[2, 16]</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[1, 17]</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>[9, 10]</t>
+          <t>[0, 18]</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>[7, 12]</t>
+          <t>[19, 22]</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>[6, 13]</t>
+          <t>[9, 10]</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>[5, 14]</t>
+          <t>[8, 11]</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>[4, 15]</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>[20, 22]</t>
+          <t>[7, 12]</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>[3, 16]</t>
+          <t>[6, 13]</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>[1, 18]</t>
+          <t>[5, 14]</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>[0, 19]</t>
+          <t>[4, 15]</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>[20, 22]</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
+          <t>[3, 16]</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>[7, 13]</t>
+          <t>[2, 17]</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[1, 18]</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>[5, 15]</t>
+          <t>[0, 19]</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>[4, 16]</t>
+          <t>[9, 11]</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
+          <t>[8, 12]</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
           <t>[3, 17]</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>[10, 11]</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>[2, 18]</t>
+          <t>[7, 13]</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>[1, 19]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>[0, 20]</t>
+          <t>[5, 15]</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>[21, 22]</t>
+          <t>[4, 16]</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>[9, 12]</t>
+          <t>[2, 18]</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>[8, 13]</t>
+          <t>[1, 19]</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>[7, 14]</t>
+          <t>[0, 20]</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>[6, 15]</t>
+          <t>[21, 22]</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
+          <t>[10, 11]</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>[4, 17]</t>
+          <t>[9, 12]</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>[3, 18]</t>
+          <t>[8, 13]</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>[2, 19]</t>
+          <t>[7, 14]</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[6, 15]</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>[0, 21]</t>
+          <t>[5, 16]</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>[10, [3, 0], [0, 0]]</t>
+          <t>[4, 17]</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>[22, [1, 0], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>[4, [2, 4], [4, 4]]</t>
+          <t>[3, 18]</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>[19, [1, 2], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>[2, [0, 3], [1, 4]]</t>
+          <t>[2, 19]</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>[21, [0, 1], [2, 4]]</t>
+          <t>[1, 20]</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>[12, [4, 1], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>[13, [4, 2], [0, 2]]</t>
+          <t>[0, 21]</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>[20, [0, 0], [3, 4]]</t>
+          <t>[10, [3, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>[8, [4, 0], [2, 1]]</t>
+          <t>[22, [1, 0], [1, 3]]</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>[1, [0, 2], [0, 4]]</t>
+          <t>[4, [2, 4], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>[14, [2, 2], [1, 0]]</t>
+          <t>[19, [1, 2], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>[2, [0, 3], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>[16, [2, 3], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>[3, [1, 4], [2, 3]]</t>
+          <t>[21, [0, 1], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>[17, [0, 4], [3, 2]]</t>
+          <t>[12, [4, 1], [0, 1]]</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>[6, [3, 2], [4, 1]]</t>
+          <t>[13, [4, 2], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>[11, [2, 0], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>[0, [1, 1], [0, 3]]</t>
+          <t>[20, [0, 0], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>[15, [3, 4], [2, 0]]</t>
+          <t>[8, [4, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>[1, [0, 2], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>[7, [3, 1], [2, 2]]</t>
+          <t>[14, [2, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>[18, [1, 3], [4, 2]]</t>
+          <t>[16, [2, 3], [3, 1]]</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>[3, [1, 4], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>[9, [2, 1], [1, 1]]</t>
+          <t>[17, [0, 4], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>[6, [3, 2], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>[(0, 3), (0, 4), (1, 4), (2, 3), (4, 4), (3, 3), (4, 1), (2, 2), (2, 1), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (4, 2), (4, 3), (3, 4), (2, 4), (1, 3)]</t>
+          <t>[11, [2, 0], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>[0, [1, 1], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>[10, 12]</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>[4, 18]</t>
+          <t>[15, [3, 4], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>[9, 13]</t>
+          <t>[7, [3, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>[8, 14]</t>
+          <t>[18, [1, 3], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>[7, 15]</t>
+          <t>[9, [2, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>[6, 16]</t>
+          <t>[[0, 3], [0, 4], [1, 4], [2, 3], [4, 4], [3, 3], [4, 1], [2, 2], [2, 1], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [4, 2], [4, 3], [3, 4], [2, 4], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>[5, 17]</t>
+          <t>[10, 12]</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>[4, 18]</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>[3, 19]</t>
+          <t>[9, 13]</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>[2, 20]</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>[10, 15]</t>
+          <t>[8, 14]</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>[1, 21]</t>
+          <t>[7, 15]</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>[0, 22]</t>
+          <t>[6, 16]</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>[11, 12]</t>
+          <t>[5, 17]</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>[10, 13]</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>[4, 19]</t>
+          <t>[3, 19]</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>[9, 14]</t>
+          <t>[2, 20]</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>[8, 15]</t>
+          <t>[1, 21]</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>[7, 16]</t>
+          <t>[0, 22]</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>[6, 17]</t>
+          <t>[11, 12]</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>[5, 18]</t>
+          <t>[10, 13]</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>[4, 19]</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>[3, 20]</t>
+          <t>[9, 14]</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>[2, 21]</t>
+          <t>[8, 15]</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>[1, 22]</t>
+          <t>[7, 16]</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>[11, 13]</t>
+          <t>[6, 17]</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>[10, 14]</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>[4, 20]</t>
+          <t>[5, 18]</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>[9, 15]</t>
+          <t>[3, 20]</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>[8, 16]</t>
+          <t>[2, 21]</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>[7, 17]</t>
+          <t>[1, 22]</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>[6, 18]</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>[0, 1]</t>
+          <t>[11, 13]</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>[5, 19]</t>
+          <t>[10, 14]</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>[4, 20]</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>[3, 21]</t>
+          <t>[9, 15]</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>[2, 22]</t>
+          <t>[8, 16]</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>[12, 13]</t>
+          <t>[7, 17]</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>[11, 14]</t>
+          <t>[6, 18]</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>[0, 1]</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>[9, 16]</t>
+          <t>[5, 19]</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[3, 21]</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>[7, 18]</t>
+          <t>[2, 22]</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>[6, 19]</t>
+          <t>[12, 13]</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>[5, 20]</t>
+          <t>[11, 14]</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>[4, 21]</t>
+          <t>[10, 15]</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>[0, 2]</t>
+          <t>[9, 16]</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>[3, 22]</t>
+          <t>[8, 17]</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>[8, [2, 1], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>[13, [0, 2], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="C509" t="inlineStr">
-        <is>
-          <t>[21, [2, 4], [4, 3]]</t>
+          <t>[7, 18]</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>[10, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>[19, [4, 3], [3, 2]]</t>
+          <t>[6, 19]</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>[17, [3, 2], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>[5, [3, 3], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="C511" t="inlineStr">
-        <is>
-          <t>[2, [1, 4], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>[3, [2, 3], [1, 3]]</t>
+          <t>[5, 20]</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>[6, [4, 1], [4, 4]]</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>[15, [2, 0], [0, 2]]</t>
+          <t>[4, 21]</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>[18, [4, 2], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>[12, [0, 1], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="C513" t="inlineStr">
-        <is>
-          <t>[1, [0, 4], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="D513" t="inlineStr">
-        <is>
-          <t>[16, [3, 1], [1, 0]]</t>
+          <t>[0, 2]</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>[22, [1, 3], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>[0, [0, 3], [2, 4]]</t>
+          <t>[3, 22]</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>[14, [1, 0], [0, 1]]</t>
+          <t>[8, [2, 1], [4, 1]]</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>[20, [3, 4], [4, 2]]</t>
+          <t>[13, [0, 2], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>[21, [2, 4], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>[4, [4, 4], [1, 4]]</t>
+          <t>[10, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>[19, [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>[7, [2, 2], [3, 3]]</t>
+          <t>[17, [3, 2], [2, 0]]</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>[9, [1, 1], [2, 2]]</t>
+          <t>[5, [3, 3], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>[2, [1, 4], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>[3, [2, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>[11, [1, 2], [1, 1]]</t>
+          <t>[6, [4, 1], [4, 4]]</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>[15, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>[(2, 4), (0, 3), (0, 4), (1, 3), (1, 4), (2, 3), (4, 4), (3, 3), (4, 1), (2, 2), (2, 1), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (4, 2), (4, 3), (3, 4)]</t>
+          <t>[18, [4, 2], [3, 1]]</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>[12, [0, 1], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>[1, [0, 4], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>[16, [3, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>[12, 14]</t>
+          <t>[22, [1, 3], [3, 4]]</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>[6, 20]</t>
+          <t>[0, [0, 3], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>[11, 15]</t>
+          <t>[14, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>[20, [3, 4], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>[10, 16]</t>
+          <t>[4, [4, 4], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>[9, 17]</t>
+          <t>[7, [2, 2], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>[9, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>[8, 18]</t>
+          <t>[11, [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>[7, 19]</t>
+          <t>[[2, 4], [0, 3], [0, 4], [1, 3], [1, 4], [2, 3], [4, 4], [3, 3], [4, 1], [2, 2], [2, 1], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [4, 2], [4, 3], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>[5, 21]</t>
+          <t>[12, 14]</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>[6, 20]</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>[1, 2]</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>[8, 20]</t>
+          <t>[11, 15]</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>[0, 3]</t>
+          <t>[10, 16]</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>[4, 22]</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>[12, 17]</t>
+          <t>[9, 17]</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>[13, 14]</t>
+          <t>[8, 18]</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>[12, 15]</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>[6, 21]</t>
+          <t>[7, 19]</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>[11, 16]</t>
+          <t>[5, 21]</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>[10, 17]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>[9, 18]</t>
+          <t>[0, 3]</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>[8, 19]</t>
+          <t>[4, 22]</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>[7, 20]</t>
+          <t>[13, 14]</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>[1, 3]</t>
+          <t>[12, 15]</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>[6, 21]</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>[0, 4]</t>
+          <t>[11, 16]</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>[5, 22]</t>
+          <t>[10, 17]</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[9, 18]</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>[12, 16]</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>[6, 22]</t>
+          <t>[8, 19]</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>[11, 17]</t>
+          <t>[7, 20]</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>[10, 18]</t>
+          <t>[1, 3]</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>[9, 19]</t>
+          <t>[0, 4]</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>[7, 21]</t>
+          <t>[5, 22]</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[13, 15]</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>[1, 4]</t>
+          <t>[12, 16]</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>[6, 22]</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>[0, 5]</t>
+          <t>[11, 17]</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
+          <t>[10, 18]</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>[13, 16]</t>
+          <t>[9, 19]</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>[11, 18]</t>
+          <t>[8, 20]</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>[10, 19]</t>
+          <t>[7, 21]</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>[9, 20]</t>
+          <t>[2, 3]</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>[8, 21]</t>
+          <t>[1, 4]</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>[2, 4]</t>
+          <t>[0, 5]</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>[1, 5]</t>
+          <t>[14, 15]</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>[0, 6]</t>
+          <t>[13, 16]</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>[7, 22]</t>
+          <t>[12, 17]</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>[2, [0, 4], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>[20, [4, 2], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>[21, [4, 3], [3, 2]]</t>
+          <t>[11, 18]</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>[12, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>[22, [3, 4], [4, 2]]</t>
+          <t>[10, 19]</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>[18, [3, 1], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>[4, [1, 4], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>[3, [1, 3], [0, 3]]</t>
+          <t>[9, 20]</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>[8, [4, 1], [4, 4]]</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>[17, [2, 0], [0, 2]]</t>
+          <t>[8, 21]</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>[11, [1, 1], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>[9, [2, 2], [3, 3]]</t>
+          <t>[2, 4]</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>[10, [2, 1], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>[1, [0, 3], [3, 4]]</t>
+          <t>[1, 5]</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>[0, [2, 4], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>[15, [0, 2], [1, 2]]</t>
+          <t>[0, 6]</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>[6, [4, 4], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>[14, [0, 1], [0, 0]]</t>
+          <t>[7, 22]</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>[16, [1, 0], [0, 1]]</t>
+          <t>[2, [0, 4], [2, 4]]</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>[7, [3, 3], [2, 3]]</t>
+          <t>[20, [4, 2], [3, 1]]</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>[5, [2, 3], [1, 3]]</t>
+          <t>[21, [4, 3], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>[19, [3, 2], [2, 0]]</t>
+          <t>[12, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>[22, [3, 4], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>[13, [1, 2], [1, 1]]</t>
+          <t>[18, [3, 1], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>[4, [1, 4], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>[3, [1, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>[(4, 3), (3, 4), (2, 4), (0, 3), (0, 4), (1, 3), (1, 4), (2, 3), (4, 4), (3, 3), (4, 1), (2, 2), (2, 1), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1), (3, 2), (4, 2)]</t>
+          <t>[8, [4, 1], [4, 4]]</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>[17, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>[14, 16]</t>
+          <t>[11, [1, 1], [2, 2]]</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>[8, 22]</t>
+          <t>[9, [2, 2], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>[13, 17]</t>
+          <t>[10, [2, 1], [4, 1]]</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>[1, [0, 3], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>[12, 18]</t>
+          <t>[0, [2, 4], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>[15, [0, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>[11, 19]</t>
+          <t>[6, [4, 4], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>[14, [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>[10, 20]</t>
+          <t>[16, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>[7, [3, 3], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>[5, [2, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>[9, 21]</t>
+          <t>[19, [3, 2], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>[10, 22]</t>
+          <t>[13, [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>[2, 5]</t>
+          <t>[[4, 3], [3, 4], [2, 4], [0, 3], [0, 4], [1, 3], [1, 4], [2, 3], [4, 4], [3, 3], [4, 1], [2, 2], [2, 1], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1], [3, 2], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>[1, 6]</t>
+          <t>[14, 16]</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[8, 22]</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>[0, 7]</t>
+          <t>[13, 17]</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>[15, 16]</t>
+          <t>[12, 18]</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>[14, 17]</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>[0, 8]</t>
+          <t>[11, 19]</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[10, 20]</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>[12, 19]</t>
+          <t>[9, 21]</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>[11, 20]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>[10, 21]</t>
+          <t>[2, 5]</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
+          <t>[1, 6]</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>[2, 6]</t>
+          <t>[0, 7]</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>[1, 7]</t>
+          <t>[15, 16]</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>[9, 22]</t>
+          <t>[14, 17]</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>[0, 8]</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>[15, 17]</t>
+          <t>[13, 18]</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>[14, 18]</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>[1, 8]</t>
+          <t>[12, 19]</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[11, 20]</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>[12, 20]</t>
+          <t>[10, 21]</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>[11, 21]</t>
+          <t>[3, 5]</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[2, 6]</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>[3, 6]</t>
+          <t>[1, 7]</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>[2, 7]</t>
+          <t>[9, 22]</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>[0, 9]</t>
+          <t>[15, 17]</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[14, 18]</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>[1, 8]</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>[15, 18]</t>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[12, 20]</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>[12, 21]</t>
+          <t>[11, 21]</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>[4, 6]</t>
+          <t>[4, 5]</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>[3, 7]</t>
+          <t>[3, 6]</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>[2, 8]</t>
+          <t>[2, 7]</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>[1, 9]</t>
+          <t>[0, 9]</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>[0, 10]</t>
+          <t>[10, 22]</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>[11, 22]</t>
+          <t>[16, 17]</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>[12, [2, 1], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>[5, [1, 3], [0, 3]]</t>
+          <t>[15, 18]</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>[2, [2, 4], [4, 3]]</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>[18, [1, 0], [0, 1]]</t>
+          <t>[14, 19]</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>[14, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>[10, [4, 1], [4, 4]]</t>
+          <t>[13, 20]</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>[20, [3, 1], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>[7, [2, 3], [0, 4]]</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>[22, [4, 2], [3, 1]]</t>
+          <t>[12, 21]</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>[3, [0, 3], [3, 4]]</t>
+          <t>[4, 6]</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>[11, [2, 2], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>[4, [0, 4], [2, 4]]</t>
+          <t>[3, 7]</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>[13, [1, 1], [2, 2]]</t>
+          <t>[2, 8]</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>[1, [3, 4], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>[15, [1, 2], [1, 1]]</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>[16, [0, 1], [0, 0]]</t>
+          <t>[1, 9]</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>[8, [4, 4], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>[19, [2, 0], [0, 2]]</t>
+          <t>[0, 10]</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>[0, [4, 3], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>[6, [1, 4], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>[21, [3, 2], [2, 0]]</t>
+          <t>[11, 22]</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>[9, [3, 3], [2, 3]]</t>
+          <t>[12, [2, 1], [4, 1]]</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>[5, [1, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>[17, [0, 2], [1, 2]]</t>
+          <t>[2, [2, 4], [4, 3]]</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>[18, [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>[(3, 2), (4, 2), (4, 3), (3, 4), (2, 4), (0, 3), (1, 3), (0, 4), (1, 4), (2, 3), (4, 4), (3, 3), (4, 1), (2, 2), (2, 1), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (2, 0), (3, 1)]</t>
+          <t>[14, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>[10, [4, 1], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>[16, 18]</t>
+          <t>[20, [3, 1], [1, 0]]</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>[1, 10]</t>
+          <t>[7, [2, 3], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>[22, [4, 2], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>[15, 19]</t>
+          <t>[3, [0, 3], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>[14, 20]</t>
+          <t>[11, [2, 2], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>[4, [0, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>[13, 21]</t>
+          <t>[13, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>[5, 6]</t>
+          <t>[1, [3, 4], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>[15, [1, 2], [1, 1]]</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>[16, [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>[4, 7]</t>
+          <t>[8, [4, 4], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>[19, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>[3, 8]</t>
+          <t>[0, [4, 3], [3, 2]]</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>[16, 21]</t>
+          <t>[6, [1, 4], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>[21, [3, 2], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>[2, 9]</t>
+          <t>[9, [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>[0, 11]</t>
+          <t>[17, [0, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>[12, 22]</t>
+          <t>[[3, 2], [4, 2], [4, 3], [3, 4], [2, 4], [0, 3], [1, 3], [0, 4], [1, 4], [2, 3], [4, 4], [3, 3], [4, 1], [2, 2], [2, 1], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [2, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>[17, 18]</t>
+          <t>[16, 18]</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>[1, 10]</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>[16, 19]</t>
-        </is>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>[2, 10]</t>
+          <t>[15, 19]</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>[15, 20]</t>
+          <t>[14, 20]</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>[14, 21]</t>
+          <t>[13, 21]</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>[5, 7]</t>
-        </is>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>[1, 12]</t>
+          <t>[5, 6]</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>[4, 8]</t>
+          <t>[4, 7]</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>[3, 9]</t>
+          <t>[3, 8]</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>[1, 11]</t>
+          <t>[2, 9]</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>[0, 12]</t>
+          <t>[0, 11]</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>[13, 22]</t>
+          <t>[12, 22]</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>[17, 19]</t>
+          <t>[17, 18]</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>[16, 20]</t>
+          <t>[16, 19]</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>[3, 10]</t>
+          <t>[2, 10]</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[15, 20]</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>[6, 7]</t>
+          <t>[14, 21]</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>[5, 8]</t>
+          <t>[5, 7]</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>[4, 9]</t>
+          <t>[4, 8]</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>[2, 11]</t>
+          <t>[3, 9]</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>[0, 13]</t>
+          <t>[1, 11]</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>[14, 22]</t>
+          <t>[0, 12]</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>[18, 19]</t>
+          <t>[13, 22]</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>[17, 20]</t>
+          <t>[17, 19]</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>[6, 8]</t>
+          <t>[16, 20]</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>[3, 10]</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>[5, 9]</t>
+          <t>[15, 21]</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>[4, 10]</t>
+          <t>[6, 7]</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[5, 8]</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>[2, 12]</t>
+          <t>[4, 9]</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>[1, 13]</t>
+          <t>[2, 11]</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>[0, 14]</t>
+          <t>[1, 12]</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>[15, 22]</t>
+          <t>[0, 13]</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>[15, [1, 1], [3, 1]]</t>
-        </is>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>[7, [0, 4], [0, 3]]</t>
+          <t>[14, 22]</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>[1, [4, 2], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>[18, [0, 1], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="C663" t="inlineStr">
-        <is>
-          <t>[9, [2, 3], [1, 3]]</t>
+          <t>[18, 19]</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>[22, [3, 1], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>[2, [4, 3], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="C664" t="inlineStr">
-        <is>
-          <t>[8, [1, 4], [0, 4]]</t>
+          <t>[17, 20]</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>[16, [0, 0], [3, 0]]</t>
-        </is>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>[5, [0, 3], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="C665" t="inlineStr">
-        <is>
-          <t>[13, [2, 2], [4, 3]]</t>
+          <t>[16, 21]</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>[20, [1, 0], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>[11, [3, 3], [2, 3]]</t>
+          <t>[6, 8]</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>[3, [3, 4], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>[17, [1, 2], [1, 1]]</t>
+          <t>[5, 9]</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>[10, [4, 4], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>[21, [2, 0], [0, 2]]</t>
+          <t>[4, 10]</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>[6, [1, 3], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>[19, [0, 2], [1, 2]]</t>
+          <t>[3, 11]</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>[12, [4, 1], [4, 4]]</t>
+          <t>[2, 12]</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>[4, [2, 4], [3, 3]]</t>
+          <t>[1, 13]</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>[0, [3, 2], [2, 0]]</t>
+          <t>[0, 14]</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>[14, [2, 1], [2, 2]]</t>
+          <t>[15, 22]</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (3, 2), (4, 2), (3, 3), (3, 4), (2, 4), (0, 3), (0, 4), (1, 3), (1, 4), (2, 3), (4, 4), (4, 3), (2, 2), (3, 1), (3, 0), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2), (1, 0)]</t>
+          <t>[15, [1, 1], [3, 1]]</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>[7, [0, 4], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>[18, 20]</t>
+          <t>[1, [4, 2], [2, 1]]</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>[3, 12]</t>
+          <t>[18, [0, 1], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>[9, [2, 3], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[22, [3, 1], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>[2, [4, 3], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>[8, [1, 4], [0, 4]]</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>[7, 8]</t>
+          <t>[16, [0, 0], [3, 0]]</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>[5, [0, 3], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>[13, [2, 2], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>[6, 9]</t>
+          <t>[20, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>[11, [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>[5, 10]</t>
+          <t>[3, [3, 4], [4, 2]]</t>
         </is>
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>[0, 18]</t>
+          <t>[17, [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>[4, 11]</t>
+          <t>[10, [4, 4], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>[21, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>[2, 13]</t>
+          <t>[6, [1, 3], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>[19, [0, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>[1, 14]</t>
+          <t>[12, [4, 1], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>[0, 15]</t>
+          <t>[4, [2, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>[16, 22]</t>
-        </is>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>[6, 12]</t>
+          <t>[0, [3, 2], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>[19, 20]</t>
+          <t>[14, [2, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>[18, 21]</t>
+          <t>[[2, 0], [2, 1], [3, 2], [4, 2], [3, 3], [3, 4], [2, 4], [0, 3], [0, 4], [1, 3], [1, 4], [2, 3], [4, 4], [4, 3], [2, 2], [3, 1], [3, 0], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>[7, 9]</t>
+          <t>[18, 20]</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>[3, 12]</t>
         </is>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>[6, 10]</t>
+          <t>[17, 21]</t>
         </is>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>[5, 11]</t>
+          <t>[7, 8]</t>
         </is>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>[4, 12]</t>
+          <t>[6, 9]</t>
         </is>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>[3, 13]</t>
+          <t>[5, 10]</t>
         </is>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>[2, 14]</t>
+          <t>[4, 11]</t>
         </is>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>[1, 15]</t>
+          <t>[2, 13]</t>
         </is>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>[0, 16]</t>
-        </is>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>[8, 10]</t>
+          <t>[1, 14]</t>
         </is>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>[17, 22]</t>
+          <t>[0, 15]</t>
         </is>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>[19, 21]</t>
+          <t>[16, 22]</t>
         </is>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[19, 20]</t>
         </is>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>[7, 10]</t>
+          <t>[18, 21]</t>
         </is>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>[6, 11]</t>
+          <t>[7, 9]</t>
         </is>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>[5, 12]</t>
-        </is>
-      </c>
-      <c r="B700" t="inlineStr">
-        <is>
-          <t>[18, 22]</t>
+          <t>[6, 10]</t>
         </is>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>[4, 13]</t>
+          <t>[5, 11]</t>
         </is>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>[3, 14]</t>
+          <t>[4, 12]</t>
         </is>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>[2, 15]</t>
+          <t>[3, 13]</t>
         </is>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>[1, 16]</t>
+          <t>[2, 14]</t>
         </is>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>[0, 17]</t>
+          <t>[1, 15]</t>
         </is>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>[20, 21]</t>
+          <t>[0, 16]</t>
         </is>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>[7, 11]</t>
+          <t>[17, 22]</t>
         </is>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>[5, 13]</t>
+          <t>[19, 21]</t>
         </is>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>[4, 14]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>[3, 15]</t>
+          <t>[7, 10]</t>
         </is>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>[2, 16]</t>
+          <t>[6, 11]</t>
         </is>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>[1, 17]</t>
+          <t>[5, 12]</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>[18, 22]</t>
         </is>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[4, 13]</t>
         </is>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>[7, [0, 3], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr">
-        <is>
-          <t>[0, [2, 0], [3, 0]]</t>
+          <t>[3, 14]</t>
         </is>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>[9, [1, 3], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr">
-        <is>
-          <t>[6, [2, 4], [2, 2]]</t>
+          <t>[2, 15]</t>
         </is>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>[13, [4, 3], [2, 0]]</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr">
-        <is>
-          <t>[10, [1, 4], [0, 1]]</t>
+          <t>[1, 16]</t>
         </is>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>[17, [1, 1], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr">
-        <is>
-          <t>[22, [1, 0], [3, 1]]</t>
+          <t>[0, 17]</t>
         </is>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>[12, [4, 4], [1, 0]]</t>
+          <t>[20, 21]</t>
         </is>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>[18, [0, 0], [4, 4]]</t>
+          <t>[8, 10]</t>
         </is>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>[1, [2, 1], [4, 2]]</t>
+          <t>[7, 11]</t>
         </is>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>[11, [2, 3], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr">
-        <is>
-          <t>[5, [3, 4], [1, 4]]</t>
+          <t>[6, 12]</t>
         </is>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>[8, [0, 4], [1, 1]]</t>
+          <t>[5, 13]</t>
         </is>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>[16, [3, 0], [1, 3]]</t>
+          <t>[4, 14]</t>
         </is>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>[20, [0, 1], [4, 1]]</t>
+          <t>[3, 15]</t>
         </is>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>[21, [0, 2], [4, 0]]</t>
+          <t>[2, 16]</t>
         </is>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>[4, [3, 3], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>[14, [2, 2], [1, 2]]</t>
+          <t>[1, 17]</t>
         </is>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>[15, [3, 1], [2, 3]]</t>
+          <t>[0, 18]</t>
         </is>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>[3, [4, 2], [3, 3]]</t>
+          <t>[19, 22]</t>
         </is>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>[19, [1, 2], [3, 2]]</t>
+          <t>[7, [0, 3], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>[0, [2, 0], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>[2, [3, 2], [4, 3]]</t>
+          <t>[9, [1, 3], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>[6, [2, 4], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>[(3, 0), (4, 2), (4, 3), (3, 3), (2, 4), (1, 4), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (1, 3), (3, 4), (4, 4), (3, 2), (4, 1), (4, 0), (3, 1)]</t>
+          <t>[13, [4, 3], [2, 0]]</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>[10, [1, 4], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>[9, 10]</t>
+          <t>[17, [1, 1], [3, 4]]</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>[2, 17]</t>
+          <t>[22, [1, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>[8, 11]</t>
+          <t>[12, [4, 4], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="inlineStr">
         <is>
-          <t>[7, 12]</t>
+          <t>[18, [0, 0], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="inlineStr">
         <is>
-          <t>[6, 13]</t>
+          <t>[1, [2, 1], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="inlineStr">
         <is>
-          <t>[5, 14]</t>
+          <t>[11, [2, 3], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>[5, [3, 4], [1, 4]]</t>
         </is>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="inlineStr">
         <is>
-          <t>[4, 15]</t>
+          <t>[8, [0, 4], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="inlineStr">
         <is>
-          <t>[3, 16]</t>
+          <t>[16, [3, 0], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="inlineStr">
         <is>
-          <t>[1, 18]</t>
+          <t>[20, [0, 1], [4, 1]]</t>
         </is>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>[0, 19]</t>
+          <t>[21, [0, 2], [4, 0]]</t>
         </is>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>[20, 22]</t>
+          <t>[4, [3, 3], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>[14, [2, 2], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
-        </is>
-      </c>
-      <c r="B742" t="inlineStr">
-        <is>
-          <t>[2, 18]</t>
+          <t>[15, [3, 1], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="inlineStr">
         <is>
-          <t>[8, 12]</t>
+          <t>[3, [4, 2], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>[7, 13]</t>
+          <t>[19, [1, 2], [3, 2]]</t>
         </is>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[2, [3, 2], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>[5, 15]</t>
+          <t>[[3, 0], [4, 2], [4, 3], [3, 3], [2, 4], [1, 4], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [1, 3], [3, 4], [4, 4], [3, 2], [4, 1], [4, 0], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="inlineStr">
         <is>
-          <t>[4, 16]</t>
+          <t>[9, 10]</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>[2, 17]</t>
         </is>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="inlineStr">
         <is>
-          <t>[3, 17]</t>
+          <t>[8, 11]</t>
         </is>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>[1, 19]</t>
+          <t>[7, 12]</t>
         </is>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="inlineStr">
         <is>
-          <t>[0, 20]</t>
+          <t>[6, 13]</t>
         </is>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>[21, 22]</t>
+          <t>[5, 14]</t>
         </is>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="inlineStr">
         <is>
-          <t>[10, 11]</t>
+          <t>[4, 15]</t>
         </is>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="inlineStr">
         <is>
-          <t>[9, 12]</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr">
-        <is>
-          <t>[4, 17]</t>
+          <t>[3, 16]</t>
         </is>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>[8, 13]</t>
+          <t>[1, 18]</t>
         </is>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>[7, 14]</t>
+          <t>[0, 19]</t>
         </is>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>[6, 15]</t>
+          <t>[20, 22]</t>
         </is>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="inlineStr">
         <is>
-          <t>[5, 16]</t>
+          <t>[9, 11]</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>[2, 18]</t>
         </is>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="inlineStr">
         <is>
-          <t>[3, 18]</t>
+          <t>[8, 12]</t>
         </is>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>[2, 19]</t>
+          <t>[7, 13]</t>
         </is>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="inlineStr">
         <is>
-          <t>[1, 20]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>[0, 21]</t>
+          <t>[5, 15]</t>
         </is>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="inlineStr">
         <is>
-          <t>[10, 12]</t>
+          <t>[4, 16]</t>
         </is>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>[9, 13]</t>
-        </is>
-      </c>
-      <c r="B763" t="inlineStr">
-        <is>
-          <t>[5, 17]</t>
+          <t>[3, 17]</t>
         </is>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>[8, 14]</t>
+          <t>[1, 19]</t>
         </is>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>[7, 15]</t>
+          <t>[0, 20]</t>
         </is>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>[6, 16]</t>
+          <t>[21, 22]</t>
         </is>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>[4, 18]</t>
+          <t>[10, 11]</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>[3, 19]</t>
+          <t>[9, 12]</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>[4, 17]</t>
         </is>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>[2, 20]</t>
+          <t>[8, 13]</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>[1, 21]</t>
+          <t>[7, 14]</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>[0, 22]</t>
+          <t>[6, 15]</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>[21, [4, 0], [4, 2]]</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr">
-        <is>
-          <t>[17, [3, 4], [2, 3]]</t>
-        </is>
-      </c>
-      <c r="C772" t="inlineStr">
-        <is>
-          <t>[13, [2, 0], [0, 2]]</t>
+          <t>[5, 16]</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>[3, [3, 3], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr">
-        <is>
-          <t>[4, [2, 4], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="C773" t="inlineStr">
-        <is>
-          <t>[11, [0, 2], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="D773" t="inlineStr">
-        <is>
-          <t>[14, [1, 2], [1, 0]]</t>
+          <t>[3, 18]</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>[9, [0, 0], [2, 1]]</t>
-        </is>
-      </c>
-      <c r="B774" t="inlineStr">
-        <is>
-          <t>[6, [2, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="C774" t="inlineStr">
-        <is>
-          <t>[20, [4, 1], [4, 3]]</t>
+          <t>[2, 19]</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>[1, [4, 2], [4, 0]]</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr">
-        <is>
-          <t>[16, [1, 3], [1, 2]]</t>
+          <t>[1, 20]</t>
         </is>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>[2, [4, 3], [3, 1]]</t>
+          <t>[0, 21]</t>
         </is>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="inlineStr">
         <is>
-          <t>[7, [2, 1], [1, 3]]</t>
-        </is>
-      </c>
-      <c r="B777" t="inlineStr">
-        <is>
-          <t>[12, [1, 0], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C777" t="inlineStr">
-        <is>
-          <t>[18, [4, 4], [2, 4]]</t>
+          <t>[10, 12]</t>
         </is>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="inlineStr">
         <is>
-          <t>[0, [3, 0], [0, 3]]</t>
+          <t>[9, 13]</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>[5, 17]</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>[8, [1, 1], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="B779" t="inlineStr">
-        <is>
-          <t>[19, [3, 2], [3, 3]]</t>
+          <t>[8, 14]</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>[15, [2, 3], [2, 0]]</t>
+          <t>[7, 15]</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>[22, [3, 1], [3, 0]]</t>
+          <t>[6, 16]</t>
         </is>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>[5, [1, 4], [4, 4]]</t>
+          <t>[4, 18]</t>
         </is>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>[10, [0, 1], [1, 1]]</t>
+          <t>[3, 19]</t>
         </is>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>[(0, 3), (4, 0), (3, 1), (4, 1), (3, 2), (4, 4), (3, 4), (1, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (2, 4), (3, 3), (4, 3), (4, 2), (3, 0)]</t>
+          <t>[2, 20]</t>
         </is>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>[11, 12]</t>
-        </is>
-      </c>
-      <c r="B785" t="inlineStr">
-        <is>
-          <t>[5, 20]</t>
+          <t>[1, 21]</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>[10, 13]</t>
+          <t>[0, 22]</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>[9, 14]</t>
+          <t>[21, [4, 0], [4, 2]]</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>[17, [3, 4], [2, 3]]</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>[13, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>[8, 15]</t>
+          <t>[3, [3, 3], [4, 1]]</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>[4, [2, 4], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>[11, [0, 2], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>[14, [1, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>[7, 16]</t>
+          <t>[9, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>[6, [2, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>[20, [4, 1], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>[6, 17]</t>
+          <t>[1, [4, 2], [4, 0]]</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>[16, [1, 3], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>[5, 18]</t>
-        </is>
-      </c>
-      <c r="B791" t="inlineStr">
-        <is>
-          <t>[11, 14]</t>
+          <t>[2, [4, 3], [3, 1]]</t>
         </is>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>[4, 19]</t>
+          <t>[7, [2, 1], [1, 3]]</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>[12, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>[18, [4, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>[3, 20]</t>
-        </is>
-      </c>
-      <c r="B793" t="inlineStr">
-        <is>
-          <t>[11, 13]</t>
+          <t>[0, [3, 0], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>[2, 21]</t>
+          <t>[8, [1, 1], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>[19, [3, 2], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>[1, 22]</t>
+          <t>[15, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>[10, 14]</t>
+          <t>[22, [3, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>[9, 15]</t>
+          <t>[5, [1, 4], [4, 4]]</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>[8, 16]</t>
+          <t>[10, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>[7, 17]</t>
+          <t>[[0, 3], [4, 0], [3, 1], [4, 1], [3, 2], [4, 4], [3, 4], [1, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [2, 4], [3, 3], [4, 3], [4, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>[6, 18]</t>
+          <t>[11, 12]</t>
         </is>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>[5, 19]</t>
+          <t>[10, 13]</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>[4, 20]</t>
+          <t>[9, 14]</t>
         </is>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>[3, 21]</t>
+          <t>[8, 15]</t>
         </is>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>[2, 22]</t>
+          <t>[7, 16]</t>
         </is>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>[12, 13]</t>
+          <t>[6, 17]</t>
         </is>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>[10, 15]</t>
+          <t>[5, 18]</t>
         </is>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="inlineStr">
         <is>
-          <t>[9, 16]</t>
+          <t>[4, 19]</t>
         </is>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="inlineStr">
         <is>
-          <t>[8, 17]</t>
+          <t>[3, 20]</t>
         </is>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>[7, 18]</t>
+          <t>[2, 21]</t>
         </is>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="inlineStr">
         <is>
-          <t>[6, 19]</t>
+          <t>[1, 22]</t>
         </is>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>[4, 21]</t>
+          <t>[11, 13]</t>
         </is>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="inlineStr">
         <is>
-          <t>[3, 22]</t>
+          <t>[10, 14]</t>
         </is>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="inlineStr">
         <is>
-          <t>[12, 14]</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>[6, 20]</t>
+          <t>[9, 15]</t>
         </is>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>[11, 15]</t>
+          <t>[8, 16]</t>
         </is>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="inlineStr">
         <is>
-          <t>[10, 16]</t>
+          <t>[7, 17]</t>
         </is>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>[9, 17]</t>
+          <t>[6, 18]</t>
         </is>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="inlineStr">
         <is>
-          <t>[8, 18]</t>
+          <t>[5, 19]</t>
         </is>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="inlineStr">
         <is>
-          <t>[7, 19]</t>
+          <t>[4, 20]</t>
         </is>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>[5, 21]</t>
+          <t>[3, 21]</t>
         </is>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="inlineStr">
         <is>
-          <t>[4, 22]</t>
+          <t>[2, 22]</t>
         </is>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>[11, [0, 0], [2, 1]]</t>
+          <t>[12, 13]</t>
         </is>
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>[8, [2, 2], [3, 4]]</t>
+          <t>[5, 20]</t>
         </is>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="inlineStr">
         <is>
-          <t>[20, [4, 3], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>[14, [1, 0], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr">
-        <is>
-          <t>[9, [2, 1], [1, 3]]</t>
+          <t>[11, 14]</t>
         </is>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="inlineStr">
         <is>
-          <t>[7, [1, 3], [4, 4]]</t>
-        </is>
-      </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>[13, [0, 2], [0, 0]]</t>
+          <t>[10, 15]</t>
         </is>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>[6, [3, 4], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>[12, [0, 1], [1, 1]]</t>
+          <t>[9, 16]</t>
         </is>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="inlineStr">
         <is>
-          <t>[18, [2, 4], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr">
-        <is>
-          <t>[3, [4, 1], [3, 0]]</t>
+          <t>[8, 17]</t>
         </is>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>[5, [4, 4], [4, 1]]</t>
-        </is>
-      </c>
-      <c r="B826" t="inlineStr">
-        <is>
-          <t>[17, [2, 3], [2, 0]]</t>
+          <t>[7, 18]</t>
         </is>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>[22, [3, 0], [4, 3]]</t>
+          <t>[6, 19]</t>
         </is>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="inlineStr">
         <is>
-          <t>[21, [4, 2], [3, 3]]</t>
-        </is>
-      </c>
-      <c r="B828" t="inlineStr">
-        <is>
-          <t>[15, [2, 0], [0, 2]]</t>
+          <t>[4, 21]</t>
         </is>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>[16, [1, 2], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B829" t="inlineStr">
-        <is>
-          <t>[19, [3, 3], [2, 3]]</t>
+          <t>[3, 22]</t>
         </is>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>[10, [1, 1], [2, 2]]</t>
+          <t>[12, 14]</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>[6, 20]</t>
         </is>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>[4, [3, 2], [4, 2]]</t>
+          <t>[11, 15]</t>
         </is>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>[(0, 3), (4, 0), (3, 1), (3, 0), (4, 2), (4, 1), (3, 2), (4, 4), (3, 4), (1, 3), (2, 2), (2, 1), (1, 1), (0, 0), (0, 1), (0, 2), (1, 0), (2, 0), (1, 2), (2, 3), (2, 4), (3, 3), (4, 3)]</t>
+          <t>[10, 16]</t>
         </is>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="inlineStr">
         <is>
-          <t>[13, 14]</t>
-        </is>
-      </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>[7, 22]</t>
+          <t>[9, 17]</t>
         </is>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>[12, 15]</t>
+          <t>[8, 18]</t>
         </is>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>[11, 16]</t>
+          <t>[7, 19]</t>
         </is>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>[10, 17]</t>
+          <t>[5, 21]</t>
         </is>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>[9, 18]</t>
+          <t>[4, 22]</t>
         </is>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>[8, 19]</t>
+          <t>[11, [0, 0], [2, 1]]</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>[8, [2, 2], [3, 4]]</t>
         </is>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>[7, 20]</t>
+          <t>[20, [4, 3], [2, 4]]</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>[13, 16]</t>
+          <t>[14, [1, 0], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>[9, [2, 1], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>[6, 21]</t>
+          <t>[7, [1, 3], [4, 4]]</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>[13, [0, 2], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>[5, 22]</t>
+          <t>[6, [3, 4], [3, 2]]</t>
         </is>
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[12, [0, 1], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="inlineStr">
         <is>
-          <t>[12, 16]</t>
+          <t>[18, [2, 4], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>[3, [4, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="inlineStr">
         <is>
-          <t>[11, 17]</t>
+          <t>[5, [4, 4], [4, 1]]</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>[17, [2, 3], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>[10, 18]</t>
+          <t>[22, [3, 0], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="inlineStr">
         <is>
-          <t>[9, 19]</t>
+          <t>[21, [4, 2], [3, 3]]</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>[15, [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="inlineStr">
         <is>
-          <t>[8, 20]</t>
+          <t>[16, [1, 2], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>[19, [3, 3], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="inlineStr">
         <is>
-          <t>[7, 21]</t>
+          <t>[10, [1, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>[6, 22]</t>
+          <t>[4, [3, 2], [4, 2]]</t>
         </is>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>[14, 15]</t>
+          <t>[[0, 3], [4, 0], [3, 1], [3, 0], [4, 2], [4, 1], [3, 2], [4, 4], [3, 4], [1, 3], [2, 2], [2, 1], [1, 1], [0, 0], [0, 1], [0, 2], [1, 0], [2, 0], [1, 2], [2, 3], [2, 4], [3, 3], [4, 3]]</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>[12, 17]</t>
+          <t>[13, 14]</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>[11, 18]</t>
+          <t>[12, 15]</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>[10, 19]</t>
+          <t>[11, 16]</t>
         </is>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="inlineStr">
         <is>
-          <t>[9, 20]</t>
+          <t>[10, 17]</t>
         </is>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>[8, 21]</t>
+          <t>[9, 18]</t>
         </is>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>[14, 16]</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>[8, 22]</t>
+          <t>[8, 19]</t>
         </is>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>[13, 17]</t>
+          <t>[7, 20]</t>
         </is>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
         <is>
-          <t>[12, 18]</t>
+          <t>[6, 21]</t>
         </is>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="inlineStr">
         <is>
-          <t>[11, 19]</t>
+          <t>[5, 22]</t>
         </is>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>[10, 20]</t>
+          <t>[13, 15]</t>
         </is>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="inlineStr">
         <is>
-          <t>[9, 21]</t>
+          <t>[12, 16]</t>
         </is>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>[22, [4, 3], [2, 4]]</t>
-        </is>
-      </c>
-      <c r="B861" t="inlineStr">
-        <is>
-          <t>[21, [3, 3], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="C861" t="inlineStr">
-        <is>
-          <t>[16, [1, 0], [0, 0]]</t>
+          <t>[11, 17]</t>
         </is>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="inlineStr">
         <is>
-          <t>[11, [2, 1], [2, 3]]</t>
+          <t>[10, 18]</t>
         </is>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="inlineStr">
         <is>
-          <t>[10, [2, 2], [3, 4]]</t>
-        </is>
-      </c>
-      <c r="B863" t="inlineStr">
-        <is>
-          <t>[14, [0, 1], [1, 2]]</t>
+          <t>[9, 19]</t>
         </is>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>[20, [2, 4], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B864" t="inlineStr">
-        <is>
-          <t>[19, [2, 3], [0, 2]]</t>
-        </is>
-      </c>
-      <c r="C864" t="inlineStr">
-        <is>
-          <t>[8, [3, 4], [3, 3]]</t>
+          <t>[8, 20]</t>
         </is>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="inlineStr">
         <is>
-          <t>[13, [0, 0], [1, 3]]</t>
+          <t>[7, 21]</t>
         </is>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="inlineStr">
         <is>
-          <t>[9, [1, 3], [2, 2]]</t>
-        </is>
-      </c>
-      <c r="B866" t="inlineStr">
-        <is>
-          <t>[15, [0, 2], [0, 1]]</t>
+          <t>[6, 22]</t>
         </is>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="inlineStr">
         <is>
-          <t>[12, [1, 1], [0, 4]]</t>
+          <t>[14, 15]</t>
         </is>
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>[17, [2, 0], [1, 0]]</t>
+          <t>[7, 22]</t>
         </is>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>[0, [0, 3], [2, 1]]</t>
+          <t>[13, 16]</t>
         </is>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>[18, [1, 2], [1, 1]]</t>
+          <t>[12, 17]</t>
         </is>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>[(2, 1), (4, 0), (3, 1), (3, 0), (4, 2), (4, 1), (3, 2), (4, 4), (3, 3), (2, 2), (3, 4), (2, 3), (0, 4), (1, 3), (1, 2), (0, 1), (0, 0), (1, 0), (1, 1), (0, 2), (0, 3), (1, 4), (2, 4)]</t>
+          <t>[11, 18]</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>[15, 16]</t>
+          <t>[10, 19]</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>[14, 17]</t>
+          <t>[9, 20]</t>
         </is>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>[13, 18]</t>
+          <t>[8, 21]</t>
         </is>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>[12, 19]</t>
+          <t>[14, 16]</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>[8, 22]</t>
         </is>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>[11, 20]</t>
+          <t>[13, 17]</t>
         </is>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>[10, 21]</t>
+          <t>[12, 18]</t>
         </is>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>[9, 22]</t>
+          <t>[11, 19]</t>
         </is>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>[15, 17]</t>
+          <t>[10, 20]</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>[14, 18]</t>
+          <t>[9, 21]</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>[13, 19]</t>
+          <t>[22, [4, 3], [2, 4]]</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>[21, [3, 3], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>[16, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>[12, 20]</t>
+          <t>[11, [2, 1], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>[11, 21]</t>
+          <t>[10, [2, 2], [3, 4]]</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>[14, [0, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>[10, 22]</t>
+          <t>[20, [2, 4], [0, 3]]</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>[16, 17]</t>
+          <t>[19, [2, 3], [0, 2]]</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>[8, [3, 4], [3, 3]]</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>[15, 18]</t>
+          <t>[13, [0, 0], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>[14, 19]</t>
+          <t>[9, [1, 3], [2, 2]]</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>[15, [0, 2], [0, 1]]</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>[13, 20]</t>
+          <t>[12, [1, 1], [0, 4]]</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>[17, [2, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="inlineStr">
         <is>
-          <t>[12, 21]</t>
+          <t>[0, [0, 3], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="inlineStr">
         <is>
-          <t>[11, 22]</t>
+          <t>[18, [1, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="inlineStr">
         <is>
-          <t>[16, 18]</t>
+          <t>[[2, 1], [4, 0], [3, 1], [3, 0], [4, 2], [4, 1], [3, 2], [4, 4], [3, 3], [2, 2], [3, 4], [2, 3], [0, 4], [1, 3], [1, 2], [0, 1], [0, 0], [1, 0], [1, 1], [0, 2], [0, 3], [1, 4], [2, 4]]</t>
         </is>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="inlineStr">
         <is>
-          <t>[15, 19]</t>
+          <t>[15, 16]</t>
         </is>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>[14, 20]</t>
+          <t>[14, 17]</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>[13, 21]</t>
+          <t>[13, 18]</t>
         </is>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>[12, 22]</t>
+          <t>[12, 19]</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>[17, 18]</t>
+          <t>[11, 20]</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>[16, 19]</t>
+          <t>[10, 21]</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>[15, 20]</t>
+          <t>[9, 22]</t>
         </is>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="inlineStr">
         <is>
-          <t>[14, 21]</t>
+          <t>[15, 17]</t>
         </is>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>[13, 22]</t>
+          <t>[14, 18]</t>
         </is>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>[22, [2, 4], [1, 0]]</t>
+          <t>[13, 19]</t>
         </is>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="inlineStr">
         <is>
-          <t>[3, [3, 0], [3, 2]]</t>
-        </is>
-      </c>
-      <c r="B900" t="inlineStr">
-        <is>
-          <t>[11, [2, 3], [0, 3]]</t>
+          <t>[12, 20]</t>
         </is>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>[20, [0, 3], [0, 1]]</t>
-        </is>
-      </c>
-      <c r="B901" t="inlineStr">
-        <is>
-          <t>[14, [1, 2], [3, 0]]</t>
+          <t>[11, 21]</t>
         </is>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="inlineStr">
         <is>
-          <t>[15, [0, 1], [2, 0]]</t>
+          <t>[10, 22]</t>
         </is>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="inlineStr">
         <is>
-          <t>[16, [0, 0], [2, 1]]</t>
+          <t>[16, 17]</t>
         </is>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>[21, [1, 4], [1, 1]]</t>
+          <t>[15, 18]</t>
         </is>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="inlineStr">
         <is>
-          <t>[18, [1, 1], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B905" t="inlineStr">
-        <is>
-          <t>[13, [1, 3], [1, 4]]</t>
-        </is>
-      </c>
-      <c r="C905" t="inlineStr">
-        <is>
-          <t>[0, [2, 1], [2, 2]]</t>
+          <t>[14, 19]</t>
         </is>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="inlineStr">
         <is>
-          <t>[6, [3, 2], [2, 3]]</t>
+          <t>[13, 20]</t>
         </is>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="inlineStr">
         <is>
-          <t>[9, [2, 2], [1, 3]]</t>
+          <t>[12, 21]</t>
         </is>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="inlineStr">
         <is>
-          <t>[17, [1, 0], [0, 0]]</t>
+          <t>[11, 22]</t>
         </is>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>[(2, 2), (4, 0), (3, 1), (3, 2), (4, 2), (4, 1), (2, 3), (4, 4), (3, 3), (1, 3), (3, 4), (0, 3), (0, 4), (1, 4), (3, 0), (2, 0), (2, 1), (0, 0), (1, 2), (0, 2), (0, 1), (1, 1), (1, 0)]</t>
+          <t>[16, 18]</t>
         </is>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="inlineStr">
         <is>
-          <t>[17, 19]</t>
+          <t>[15, 19]</t>
         </is>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>[16, 20]</t>
+          <t>[14, 20]</t>
         </is>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="inlineStr">
         <is>
-          <t>[15, 21]</t>
+          <t>[13, 21]</t>
         </is>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="inlineStr">
         <is>
-          <t>[14, 22]</t>
+          <t>[12, 22]</t>
         </is>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="inlineStr">
         <is>
-          <t>[18, 19]</t>
+          <t>[17, 18]</t>
         </is>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="inlineStr">
         <is>
-          <t>[17, 20]</t>
+          <t>[16, 19]</t>
         </is>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="inlineStr">
         <is>
-          <t>[16, 21]</t>
+          <t>[15, 20]</t>
         </is>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="inlineStr">
         <is>
-          <t>[15, 22]</t>
+          <t>[14, 21]</t>
         </is>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="inlineStr">
         <is>
-          <t>[18, 20]</t>
+          <t>[13, 22]</t>
         </is>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="inlineStr">
         <is>
-          <t>[17, 21]</t>
+          <t>[22, [2, 4], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="inlineStr">
         <is>
-          <t>[16, 22]</t>
+          <t>[3, [3, 0], [3, 2]]</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>[11, [2, 3], [0, 3]]</t>
         </is>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="inlineStr">
         <is>
-          <t>[19, 20]</t>
+          <t>[20, [0, 3], [0, 1]]</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>[14, [1, 2], [3, 0]]</t>
         </is>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="inlineStr">
         <is>
-          <t>[18, 21]</t>
+          <t>[15, [0, 1], [2, 0]]</t>
         </is>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="inlineStr">
         <is>
-          <t>[17, 22]</t>
+          <t>[16, [0, 0], [2, 1]]</t>
         </is>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="inlineStr">
         <is>
-          <t>[19, 21]</t>
+          <t>[21, [1, 4], [1, 1]]</t>
         </is>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="inlineStr">
         <is>
-          <t>[18, 22]</t>
+          <t>[18, [1, 1], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>[13, [1, 3], [1, 4]]</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>[0, [2, 1], [2, 2]]</t>
         </is>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="inlineStr">
         <is>
-          <t>[21, [1, 1], [0, 1]]</t>
+          <t>[6, [3, 2], [2, 3]]</t>
         </is>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="inlineStr">
         <is>
-          <t>[13, [1, 4], [1, 2]]</t>
-        </is>
-      </c>
-      <c r="B927" t="inlineStr">
-        <is>
-          <t>[20, [0, 1], [0, 0]]</t>
-        </is>
-      </c>
-      <c r="C927" t="inlineStr">
-        <is>
-          <t>[18, [1, 2], [1, 1]]</t>
+          <t>[9, [2, 2], [1, 3]]</t>
         </is>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="inlineStr">
         <is>
-          <t>[19, [0, 2], [0, 3]]</t>
-        </is>
-      </c>
-      <c r="B928" t="inlineStr">
-        <is>
-          <t>[11, [0, 3], [0, 4]]</t>
+          <t>[17, [1, 0], [0, 0]]</t>
         </is>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="inlineStr">
         <is>
-          <t>[17, [0, 0], [1, 0]]</t>
-        </is>
-      </c>
-      <c r="B929" t="inlineStr">
-        <is>
-          <t>[12, [0, 4], [1, 4]]</t>
+          <t>[[2, 2], [4, 0], [3, 1], [3, 2], [4, 2], [4, 1], [2, 3], [4, 4], [3, 3], [1, 3], [3, 4], [0, 3], [0, 4], [1, 4], [3, 0], [2, 0], [2, 1], [0, 0], [1, 2], [0, 2], [0, 1], [1, 1], [1, 0]]</t>
         </is>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="inlineStr">
         <is>
-          <t>[22, [1, 0], [0, 2]]</t>
+          <t>[17, 19]</t>
         </is>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>[(2, 2), (4, 0), (3, 1), (3, 2), (4, 2), (4, 1), (2, 3), (4, 4), (3, 3), (1, 3), (3, 4), (0, 4), (1, 4), (1, 2), (3, 0), (2, 0), (2, 1), (1, 0), (1, 1), (0, 3), (0, 0), (0, 1), (0, 2)]</t>
+          <t>[16, 20]</t>
         </is>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="inlineStr">
         <is>
-          <t>[20, 21]</t>
+          <t>[15, 21]</t>
         </is>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="inlineStr">
         <is>
-          <t>[19, 22]</t>
+          <t>[14, 22]</t>
         </is>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>[20, 22]</t>
+          <t>[18, 19]</t>
         </is>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="inlineStr">
         <is>
-          <t>[21, 22]</t>
+          <t>[17, 20]</t>
         </is>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Fidelity:</t>
-        </is>
-      </c>
-      <c r="B936" t="n">
-        <v>0.01630407330661508</v>
+          <t>[16, 21]</t>
+        </is>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="inlineStr">
         <is>
-          <t>t_idle:</t>
-        </is>
-      </c>
-      <c r="B937" t="n">
-        <v>467731.5933101769</v>
+          <t>[15, 22]</t>
+        </is>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="inlineStr">
         <is>
-          <t>Movement times</t>
-        </is>
-      </c>
-      <c r="B938" t="n">
-        <v>217</v>
+          <t>[18, 20]</t>
+        </is>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>parallel times</t>
-        </is>
-      </c>
-      <c r="B939" t="n">
-        <v>690</v>
+          <t>[17, 21]</t>
+        </is>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="inlineStr">
         <is>
-          <t>partitions</t>
-        </is>
-      </c>
-      <c r="B940" t="n">
-        <v>21</v>
+          <t>[16, 22]</t>
+        </is>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>total time:</t>
-        </is>
-      </c>
-      <c r="B941" t="n">
-        <v>12.8860170841217</v>
+          <t>[19, 20]</t>
+        </is>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="inlineStr">
         <is>
+          <t>[18, 21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>[17, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>[19, 21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>[18, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>[21, [1, 1], [0, 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>[13, [1, 4], [1, 2]]</t>
+        </is>
+      </c>
+      <c r="B947" t="inlineStr">
+        <is>
+          <t>[20, [0, 1], [0, 0]]</t>
+        </is>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>[18, [1, 2], [1, 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>[19, [0, 2], [0, 3]]</t>
+        </is>
+      </c>
+      <c r="B948" t="inlineStr">
+        <is>
+          <t>[11, [0, 3], [0, 4]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>[17, [0, 0], [1, 0]]</t>
+        </is>
+      </c>
+      <c r="B949" t="inlineStr">
+        <is>
+          <t>[12, [0, 4], [1, 4]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>[22, [1, 0], [0, 2]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>[[2, 2], [4, 0], [3, 1], [3, 2], [4, 2], [4, 1], [2, 3], [4, 4], [3, 3], [1, 3], [3, 4], [0, 4], [1, 4], [1, 2], [3, 0], [2, 0], [2, 1], [1, 0], [1, 1], [0, 3], [0, 0], [0, 1], [0, 2]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>[20, 21]</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>[19, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>[20, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>[21, 22]</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>Fidelity:</t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>0.0163030733541178</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>t_idle:</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>467823.5933101769</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>move_fidelity</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>0.9866204748215844</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>Movement times</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>parallel times</t>
+        </is>
+      </c>
+      <c r="B960" t="n">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>partitions</t>
+        </is>
+      </c>
+      <c r="B961" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B962" t="n">
+        <v>0.1775369644165039</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B942" t="inlineStr">
+      <c r="B963" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C942" t="inlineStr">
+      <c r="C963" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D942" t="inlineStr">
+      <c r="D963" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E942" t="inlineStr">
+      <c r="E963" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F942" t="inlineStr">
+      <c r="F963" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G942" t="inlineStr">
+      <c r="G963" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H942" t="inlineStr">
+      <c r="H963" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I942" t="inlineStr">
+      <c r="I963" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J942" t="inlineStr">
+      <c r="J963" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K942" t="inlineStr">
+      <c r="K963" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L942" t="inlineStr">
+      <c r="L963" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M942" t="inlineStr">
+      <c r="M963" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N942" t="inlineStr">
+      <c r="N963" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
